--- a/CITracker/wwwroot/templates/operationalexcellence.xlsx
+++ b/CITracker/wwwroot/templates/operationalexcellence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eruog\OneDrive\Documents\Project Files\CITracker\App\CITracker\CITracker\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18BE2B4-8B89-4E89-98B9-8752F715A912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5165A05-50D4-49DA-B686-DB033A62B00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{9F7EF888-3D47-4E63-80A9-8FC1120973C5}"/>
+    <workbookView xWindow="5715" yWindow="2100" windowWidth="21720" windowHeight="11295" xr2:uid="{9F7EF888-3D47-4E63-80A9-8FC1120973C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Country</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -83,41 +77,52 @@
     <t>SavingsClassification</t>
   </si>
   <si>
-    <t>yyyy-MM-dd</t>
-  </si>
-  <si>
-    <t>High, Medium or Low</t>
-  </si>
-  <si>
-    <t>EmailAddress as uploaded in the User's upload</t>
-  </si>
-  <si>
-    <t>Yes or NO</t>
-  </si>
-  <si>
-    <t>Cost Out, Cost Savings, Revenue or Cost Avoidance</t>
-  </si>
-  <si>
     <t>TargetSavings</t>
   </si>
   <si>
-    <t>decimal only (unformatted)</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
-    <t>USD, GBP, NGN, CAD, etc..</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>PROPOSED,
-INITIATED,
-COMPLETED,
-CLOSED,
-CANCELLED</t>
+    <t>Test ohhhh</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Test description for this new OE project</t>
+  </si>
+  <si>
+    <t>eruoghene507@gmail.com</t>
+  </si>
+  <si>
+    <t>support@opsfocus.org</t>
+  </si>
+  <si>
+    <t>i.asha@opsfocus.org</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cost Out</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ottawa West</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>PROPOSED</t>
   </si>
 </sst>
 </file>
@@ -162,12 +167,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -485,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53454CCB-0013-435F-9B79-AC4C0E7C1FC6}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,47 +508,49 @@
     <col min="2" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -549,60 +562,66 @@
         <v>2</v>
       </c>
       <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>46045</v>
+      </c>
+      <c r="C2" s="4">
+        <v>46415</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{F34F9797-C3B2-40DB-9D7E-D0F663126E1C}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{046D6F67-BFC6-4B84-BCB0-55C9EEC27449}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{FCCA65DE-78D4-4D8E-A7A1-13681FA102D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/CITracker/wwwroot/templates/operationalexcellence.xlsx
+++ b/CITracker/wwwroot/templates/operationalexcellence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eruog\OneDrive\Documents\Project Files\CITracker\App\CITracker\CITracker\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5165A05-50D4-49DA-B686-DB033A62B00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C722FE-72FF-4BC6-8E50-7F3E889B2DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5715" yWindow="2100" windowWidth="21720" windowHeight="11295" xr2:uid="{9F7EF888-3D47-4E63-80A9-8FC1120973C5}"/>
+    <workbookView xWindow="4485" yWindow="2100" windowWidth="22950" windowHeight="11295" xr2:uid="{9F7EF888-3D47-4E63-80A9-8FC1120973C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Country</t>
   </si>
@@ -89,40 +89,40 @@
     <t>Test ohhhh</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Test description for this new OE project</t>
   </si>
   <si>
-    <t>eruoghene507@gmail.com</t>
-  </si>
-  <si>
-    <t>support@opsfocus.org</t>
-  </si>
-  <si>
-    <t>i.asha@opsfocus.org</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Cost Out</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Ottawa West</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>PROPOSED</t>
+    <t>yyyy-MM-dd</t>
+  </si>
+  <si>
+    <t>Value can either be: High, Medium or Low</t>
+  </si>
+  <si>
+    <t>This EmailAddress MUST have been previously uploaded as a Staff: sampleEmail@companyname.com</t>
+  </si>
+  <si>
+    <t>Value can either be: Yes or No</t>
+  </si>
+  <si>
+    <t>Value can either be: Cost Out, Cost Savings, Revenue or Cost Avoidance</t>
+  </si>
+  <si>
+    <t>Unformatted decimal value e.g 10000. NOT 10,000.00</t>
+  </si>
+  <si>
+    <t>Valid ISO 4217 currency Value e.g. USD, EUR. GBP, NGN, YEN etc...</t>
+  </si>
+  <si>
+    <t>Name of Country. It must have been previously uploaded into CITracker by your Admin: Canada</t>
+  </si>
+  <si>
+    <t>Name of Facility. It must have been previously uploaded into CITracker by your Admin: Ottawa West</t>
+  </si>
+  <si>
+    <t>Name of Department. It must have been previously uploaded into CITracker by your Admin: Inventory</t>
+  </si>
+  <si>
+    <t>Value can either be: PROPOSED, INITIATED, COMPLETED, CLOSED, CANCELLED</t>
   </si>
 </sst>
 </file>
@@ -498,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53454CCB-0013-435F-9B79-AC4C0E7C1FC6}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,39 +565,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
-        <v>46045</v>
-      </c>
-      <c r="C2" s="4">
-        <v>46415</v>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" s="1">
-        <v>100000</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
@@ -617,9 +617,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{F34F9797-C3B2-40DB-9D7E-D0F663126E1C}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{046D6F67-BFC6-4B84-BCB0-55C9EEC27449}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{FCCA65DE-78D4-4D8E-A7A1-13681FA102D0}"/>
+    <hyperlink ref="F2" r:id="rId1" display="eruoghene507@gmail.com" xr:uid="{F34F9797-C3B2-40DB-9D7E-D0F663126E1C}"/>
+    <hyperlink ref="G2" r:id="rId2" display="support@opsfocus.org" xr:uid="{046D6F67-BFC6-4B84-BCB0-55C9EEC27449}"/>
+    <hyperlink ref="H2" r:id="rId3" display="i.asha@opsfocus.org" xr:uid="{FCCA65DE-78D4-4D8E-A7A1-13681FA102D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
